--- a/backend/DSEC/startScan/Compromise_Assesment/Windows/Command_Data/command.xlsx
+++ b/backend/DSEC/startScan/Compromise_Assesment/Windows/Command_Data/command.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DES\DSEC360-\backend\DSEC\startScan\Compromise_Assesment\Windows\Command_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03330B6F-58D0-47FB-A869-9576D1FE9C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0FFE84-B993-4C99-A9E2-52C183985C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>S.No</t>
   </si>
@@ -42,15 +42,182 @@
     <t>script</t>
   </si>
   <si>
-    <t xml:space="preserve"># --- Running_Processes_NonMicrosoft (unique paths, SHA‑256, exclude Microsoft) ---
+    <t>Current Running Process Signed</t>
+  </si>
+  <si>
+    <t>Current Running Service Signed</t>
+  </si>
+  <si>
+    <t>$services = Get-CimInstance -ClassName Win32_Service | ForEach-Object {
+    $serviceName = $_.Name
+    $displayName = $_.DisplayName
+    $state       = $_.State
+    $rawPath     = ($_.PathName -replace '"', '') -replace '^(.*?\.exe).*$', '$1'
+    if ($rawPath -like "*svchost.exe") {
+        $regPath = "Registry::HKEY_LOCAL_MACHINE\SYSTEM\CurrentControlSet\Services\$serviceName\Parameters"
+        $serviceDll = (Get-ItemProperty -Path $regPath -ErrorAction SilentlyContinue).ServiceDll
+        if ($serviceDll -and (Test-Path $serviceDll)) {
+            try {
+                $hash = Get-FileHash -Path $serviceDll -Algorithm SHA256
+                [PSCustomObject]@{
+                    Name        = $serviceName
+                    DisplayName = $displayName
+                    State       = $state
+                    FileType    = "Service DLL (svchost)"
+                    PathName    = $serviceDll
+                    Hash        = $hash.Hash
+                }
+            } catch {
+                [PSCustomObject]@{
+                    Name        = $serviceName
+                    DisplayName = $displayName
+                    State       = $state
+                    FileType    = "Service DLL (svchost)"
+                    PathName    = $serviceDll
+                    Hash        = "Error: $($_.Exception.Message)"
+                }
+            }
+        } else {
+            [PSCustomObject]@{
+                Name        = $serviceName
+                DisplayName = $displayName
+                State       = $state
+                FileType    = "svchost (ServiceDll not found)"
+                PathName    = "ServiceDll not found"
+                Hash        = "N/A"
+            }
+        }
+    } elseif (Test-Path $rawPath) {
+        try {
+            $hash = Get-FileHash -Path $rawPath -Algorithm SHA256
+            [PSCustomObject]@{
+                Name        = $serviceName
+                DisplayName = $displayName
+                State       = $state
+                FileType    = "Executable"
+                PathName    = $rawPath
+                Hash        = $hash.Hash
+            }
+        } catch {
+            [PSCustomObject]@{
+                Name        = $serviceName
+                DisplayName = $displayName
+                State       = $state
+                FileType    = "Executable"
+                PathName    = $rawPath
+                Hash        = "Error: $($_.Exception.Message)"
+            }
+        }
+    } else {
+        [PSCustomObject]@{
+            Name        = $serviceName
+            DisplayName = $displayName
+            State       = $state
+            FileType    = "File Not Found"
+            PathName    = $rawPath
+            Hash        = "File Not Found"
+        }
+    }
+}
+# Return the results to the wrapper function
+$services</t>
+  </si>
+  <si>
+    <t>Startup files</t>
+  </si>
+  <si>
+    <t># --- Startup Files with Hashes ---
+$startupKeys = @(
+    "HKLM:\Software\Microsoft\Windows\CurrentVersion\Run",
+    "HKCU:\Software\Microsoft\Windows\CurrentVersion\Run"
+)
+$startupList = @()
+foreach ($key in $startupKeys) {
+    try {
+        $entries = Get-ItemProperty -Path $key
+        foreach ($entry in $entries.PSObject.Properties) {
+            if ($entry.Name -like "PS*") { continue }
+            $command = $entry.Value
+            if ($command -match '"([^"]+)"') {
+                $exePath = $matches[1]
+            } else {
+                $exePath = $command.Split(" ")[0]
+            }
+            if (Test-Path $exePath) {
+                try {
+                    $hash = Get-FileHash -Path $exePath -Algorithm SHA256
+                    $startupList += [PSCustomObject]@{
+                        EntryName = $entry.Name
+                        Path      = $exePath
+                        Hash      = $hash.Hash
+                    }
+                } catch {
+                    $startupList += [PSCustomObject]@{
+                        EntryName = $entry.Name
+                        Path      = $exePath
+                        Hash      = 'Hash Error'
+                    }
+                }
+            } else {
+                $startupList += [PSCustomObject]@{
+                    EntryName = $entry.Name
+                    Path      = $exePath
+                    Hash      = 'File Not Found'
+                }
+            }
+        }
+    } catch {
+        Write-Warning "Error reading registry key: $key"
+    }
+}
+$startupList</t>
+  </si>
+  <si>
+    <t>Visual Basic for Applications</t>
+  </si>
+  <si>
+    <t># --- Office Macro Security Settings for Excel, Word, PowerPoint, Access ---
+$OfficeApplications = @("Excel", "Word", "PowerPoint", "Access")
+$OfficeVersions = @(
+    "16.0", # Office 2016, 2019, 2021, Microsoft 365
+    "15.0", # Office 2013
+    "14.0"  # Office 2010
+)
+$results = @()
+foreach ($OfficeApplication in $OfficeApplications) {
+    foreach ($version in $OfficeVersions) {
+        $registryPath = "HKCU:\Software\Microsoft\Office\$version\$OfficeApplication\Security"
+        if (Test-Path $registryPath) {
+            $vbaWarningsValue = Get-ItemProperty -Path $registryPath -Name "VBAWarnings" -ErrorAction SilentlyContinue | Select-Object -ExpandProperty VBAWarnings
+            $settingDescription = switch ($vbaWarningsValue) {
+                1 { "Enable all macros (not recommended)" }
+                2 { "Disable all macros except digitally signed macros" }
+                3 { "Disable all macros with notification (Default)" }
+                4 { "Disable all macros without notification" }
+                default { "Unknown or not set" }
+            }
+            $results += [PSCustomObject]@{
+                Application = $OfficeApplication
+                OfficeVersion = $version
+                RegistryPath = $registryPath
+                VBAWarningsValue = $vbaWarningsValue
+                SettingDescription = $settingDescription
+            }
+        }
+    }
+}
+$results</t>
+  </si>
+  <si>
+    <t># --- Running_Processes_NonMicrosoft (unique paths, SHA‑256, exclude Microsoft) ---
 $procList = @()
 $seenPath = @{}   # hashtable for de‑duplication
 Get-Process | ForEach-Object {
     $p    = $_
     $path = $null
-    # 1️⃣ Direct Path (available in PS 3+)
+    # Direct Path (available in PS 3+)
     try { $path = $p.Path } catch { }
-    # 2️⃣ Fallback via CIM/WMI if Path still null (works on PS 2.0+)
+    # Fallback via CIM/WMI if Path still null (works on PS 2.0+)
     if (-not $path) {
         try {
             $wmi  = Get-CimInstance -ClassName Win32_Process -Filter "ProcessId=$($p.Id)" -ErrorAction SilentlyContinue
@@ -78,62 +245,279 @@
     if ($path) {
         try { $sha256 = (Get-FileHash -Path $path -Algorithm SHA256 -ErrorAction SilentlyContinue).Hash } catch { }
     }
+    # 🚫 Skip if everything is null
+    if (-not $path -and -not $company -and -not $sha256 -and -not $description) { return }
     $procList += New-Object psobject -Property @{
         Name        = $p.ProcessName
         PID         = $p.Id
         Path        = $path
         Company     = $company
         Description = $description
-        SHA256Hash  = $sha256
+        Hash        = $sha256
     }
 }
 # Return array; Run_Check wrapper stores it in $results["Running_Processes_NonMicrosoft"]
-$procList
-</t>
-  </si>
-  <si>
-    <t>Download Directory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$resultsList = @()
-$downloadPath = "$env:USERPROFILE\Downloads"
-$extensions = @("*.exe", "*.msi")
-foreach ($ext in $extensions) {
-    Get-ChildItem -Path $downloadPath -Filter $ext -Recurse -ErrorAction SilentlyContinue | ForEach-Object {
-        $file = $_.FullName
-        $sig = Get-AuthenticodeSignature -FilePath $file
-        $isNotMicrosoft = ($sig.SignerCertificate -and $sig.SignerCertificate.Subject -notlike "*Microsoft*")
-        if ($isNotMicrosoft -or $sig.Status -ne "Valid") {
-            $hash = Get-FileHash -Path $file -Algorithm SHA256
-            $resultsList += [PSCustomObject]@{
-                FileName        = $file
-                Extension       = $_.Extension
-                SignatureStatus = $sig.Status
-                Signer          = $sig.SignerCertificate.Subject
-                Issuer          = $sig.SignerCertificate.Issuer
-                SHA256Hash      = $hash.Hash
+$procList</t>
+  </si>
+  <si>
+    <t>Check the service Everyone Permission</t>
+  </si>
+  <si>
+    <t>Suspicious Directory</t>
+  </si>
+  <si>
+    <t># Function to check Everyone write permissions
+function Check-EveryoneWritePermission {
+    param ($filePath)
+    try {
+        $acl = Get-Acl -Path $filePath
+        $everyoneAccess = $acl.Access | Where-Object { $_.IdentityReference -match 'Everyone' }
+        foreach ($entry in $everyoneAccess) {
+            if ($entry.FileSystemRights -match "Write" -or $entry.FileSystemRights -match "FullControl") {
+                return "Yes"
             }
         }
+        return "No"
+    } catch {
+        return "Error: $($_.Exception.Message)"
     }
 }
-$resultsList
-</t>
-  </si>
-  <si>
-    <t>Current Running Process Signed</t>
+if ($null -ne $PreCollectedServicesHash) {
+    # Use pre-collected results, only check permissions
+    $services = $PreCollectedServicesHash | ForEach-Object {
+        $serviceName = $_.Name
+        $displayName = $_.DisplayName
+        $state       = $_.State
+        $fileType    = $_.FileType
+        $pathName    = $_.PathName
+        $hash        = $_.Hash
+        $everyoneWrite = if (Test-Path $pathName -and $fileType -ne "File Not Found") {
+            Check-EveryoneWritePermission -filePath $pathName
+        } else {
+            "File Not Found"
+        }
+        [PSCustomObject]@{
+            Name                = $serviceName
+            DisplayName         = $displayName
+            State               = $state
+            FileType            = $fileType
+            PathName            = $pathName
+            Hash                = $hash
+            EveryoneWriteAccess = $everyoneWrite
+        }
+    }
+} else {
+    # Full scan if no pre-collected results
+    if ($null -eq $PreCollectedServices) {
+        $PreCollectedServices = Get-CimInstance -ClassName Win32_Service
+    }
+    $services = $PreCollectedServices | ForEach-Object {
+        $serviceName = $_.Name
+        $displayName = $_.DisplayName
+        $state       = $_.State
+        $rawPath     = ($_.PathName -replace '"', '') -replace '^(.*?\.exe).*$', '$1'
+        if ($rawPath -like "*svchost.exe*") {
+            $regPath = "Registry::HKEY_LOCAL_MACHINE\SYSTEM\CurrentControlSet\Services\$serviceName\Parameters"
+            $serviceDll = (Get-ItemProperty -Path $regPath -ErrorAction SilentlyContinue).ServiceDll
+            if ($serviceDll -and (Test-Path $serviceDll)) {
+                try {
+                    $hash = Get-FileHash -Path $serviceDll -Algorithm SHA256
+                    $everyoneWrite = Check-EveryoneWritePermission -filePath $serviceDll
+                    [PSCustomObject]@{
+                        Name                = $serviceName
+                        DisplayName         = $displayName
+                        State               = $state
+                        FileType            = "Service DLL (svchost)"
+                        PathName            = $serviceDll
+                        Hash                = $hash.Hash
+                        EveryoneWriteAccess = $everyoneWrite
+                    }
+                } catch {
+                    [PSCustomObject]@{
+                        Name                = $serviceName
+                        DisplayName         = $displayName
+                        State               = $state
+                        FileType            = "Service DLL (svchost)"
+                        PathName            = $serviceDll
+                        Hash                = "Error: $($_.Exception.Message)"
+                        EveryoneWriteAccess = "Error"
+                    }
+                }
+            } else {
+                [PSCustomObject]@{
+                    Name                = $serviceName
+                    DisplayName         = $displayName
+                    State               = $state
+                    FileType            = "svchost (ServiceDll not found)"
+                    PathName            = "ServiceDll not found"
+                    Hash                = "N/A"
+                    EveryoneWriteAccess = "N/A"
+                }
+            }
+        } elseif (Test-Path $rawPath) {
+            try {
+                $hash = Get-FileHash -Path $rawPath -Algorithm SHA256
+                $everyoneWrite = Check-EveryoneWritePermission -filePath $rawPath
+                [PSCustomObject]@{
+                    Name                = $serviceName
+                    DisplayName         = $displayName
+                    State               = $state
+                    FileType            = "Executable"
+                    PathName            = $rawPath
+                    Hash                = $hash.Hash
+                    EveryoneWriteAccess = $everyoneWrite
+                }
+            } catch {
+                [PSCustomObject]@{
+                    Name                = $serviceName
+                    DisplayName         = $displayName
+                    State               = $state
+                    FileType            = "Executable"
+                    PathName            = $rawPath
+                    Hash                = "Error: $($_.Exception.Message)"
+                    EveryoneWriteAccess = "Error"
+                }
+            }
+        } else {
+            [PSCustomObject]@{
+                Name                = $serviceName
+                DisplayName         = $displayName
+                State               = $state
+                FileType            = "File Not Found"
+                PathName            = $rawPath
+                Hash                = "File Not Found"
+                EveryoneWriteAccess = "File Not Found"
+            }
+        }
+    }
+}
+# Return the results
+$services</t>
+  </si>
+  <si>
+    <t>$fullResultsList = @()
+$extensions = @("*.exe", "*.msi")
+# Get all user profiles
+$userProfiles = Get-ChildItem -Path 'C:\Users' -Directory -ErrorAction SilentlyContinue
+# Build list of all Downloads directories and Temp directories
+$userDownloadsDirs = @()
+$userTempDirs = @()
+foreach ($profile in $userProfiles) {
+    $userDownloads = "C:\Users\$($profile.Name)\Downloads"
+    if (Test-Path $userDownloads) { $userDownloadsDirs += $userDownloads }
+    $userTemp = "C:\Users\$($profile.Name)\AppData\Local\Temp"
+    if (Test-Path $userTemp) { $userTempDirs += $userTemp }
+}
+# Add Public Downloads directory
+$publicDownloadsDir = "C:\Users\Public\Downloads"
+if (Test-Path $publicDownloadsDir) { $userDownloadsDirs += $publicDownloadsDir }
+$windowsTempDir = "C:\Windows\Temp"
+# Combine all directories to search
+$directories = @() + $userDownloadsDirs + $userTempDirs + $windowsTempDir
+# Search each directory for specified file types
+foreach ($dir in $directories) {
+    foreach ($ext in $extensions) {
+        Get-ChildItem -Path $dir -Filter $ext -Recurse -ErrorAction SilentlyContinue | ForEach-Object {
+            $file = $_.FullName
+            $sig = Get-AuthenticodeSignature -FilePath $file
+            $isNotMicrosoft = ($sig.SignerCertificate -and $sig.SignerCertificate.Subject -notlike "*Microsoft*")
+            if ($isNotMicrosoft -or $sig.Status -ne "Valid") {
+                $hash = Get-FileHash -Path $file -Algorithm SHA256
+                $fullResultsList += [PSCustomObject]@{
+                    Name            = $file
+                    Extension       = $_.Extension
+                    SignatureStatus = $sig.Status
+                    Signer          = if ($sig.SignerCertificate) { $sig.SignerCertificate.Subject } else { "Unsigned" }
+                    Issuer          = if ($sig.SignerCertificate) { $sig.SignerCertificate.Issuer } else { "Unknown" }
+                    Hash            = $hash.Hash
+                    SourceDirectory = $dir
+                }
+            }
+        }
+    }
+}
+# Return the results
+$fullResultsList</t>
+  </si>
+  <si>
+    <t>Living off the Land</t>
+  </si>
+  <si>
+    <t># --- Living off the Land Binaries (LOLBins) Detection (Excluding Temp Directories) ---
+# Get all user profiles
+$userProfiles = Get-ChildItem -Path 'C:\Users' -Directory -ErrorAction SilentlyContinue
+# Build list of all Downloads directories
+$userDownloadsDirs = @()
+foreach ($profile in $userProfiles) {
+    $userDownloads = "C:\Users\$($profile.Name)\Downloads"
+    if (Test-Path $userDownloads) { $userDownloadsDirs += $userDownloads }
+}
+# Add Public Downloads directory if it exists
+$publicDownloadsDir = "C:\Users\Public\Downloads"
+if (Test-Path $publicDownloadsDir) { $userDownloadsDirs += $publicDownloadsDir }
+# Final list of directories to search (excluding Temp directories)
+$targetDirs = @(
+    "$env:SystemRoot\System32",
+    "$env:SystemRoot\SysWOW64"
+) + $userDownloadsDirs
+# List of known LOLBins (your provided list)
+$lolBins = @(
+    'AddinUtil.exe', 'AppInstaller.exe', 'Aspnet_Compiler.exe', 'At.exe', 'Atbroker.exe', 'Bash.exe', 'Bitsadmin.exe', 'CertOC.exe', 'CertReq.exe', 'Certutil.exe', 'Cipher.exe', 'Cmd.exe', 'Cmdkey.exe', 'cmdl32.exe', 'Cmstp.exe', 'Colorcpl.exe', 'ComputerDefaults.exe', 'ConfigSecurityPolicy.exe', 'Conhost.exe', 'Control.exe', 'Csc.exe', 'Cscript.exe', 'CustomShellHost.exe', 'DataSvcUtil.exe', 'Desktopimgdownldr.exe', 'DeviceCredentialDeployment.exe', 'Dfsvc.exe', 'Diantz.exe', 'Diskshadow.exe', 'Dnscmd.exe', 'Esentutl.exe', 'Eventvwr.exe', 'Expand.exe', 'Explorer.exe', 'Extexport.exe', 'Extrac32.exe', 'Findstr.exe', 'Finger.exe', 'fltMC.exe', 'Forfiles.exe', 'Fsutil.exe', 'Ftp.exe', 'Gpscript.exe', 'Hh.exe', 'IMEWDBLD.exe', 'Ie4uinit.exe', 'iediagcmd.exe', 'Ieexec.exe', 'Ilasm.exe', 'Infdefaultinstall.exe', 'Installutil.exe', 'Jsc.exe', 'Ldifde.exe', 'Makecab.exe', 'Mavinject.exe', 'Microsoft.Workflow.Compiler.exe', 'Mmc.exe', 'MpCmdRun.exe', 'Msbuild.exe', 'Msconfig.exe', 'Msdt.exe', 'Msedge.exe', 'Mshta.exe', 'Msiexec.exe', 'Netsh.exe', 'Ngen.exe', 'Odbcconf.exe', 'OfflineScannerShell.exe', 'OneDriveStandaloneUpdater.exe', 'Pcalua.exe', 'Pcwrun.exe', 'Pktmon.exe', 'Pnputil.exe', 'Presentationhost.exe', 'Print.exe', 'PrintBrm.exe', 'Provlaunch.exe', 'Psr.exe', 'Rasautou.exe', 'rdrleakdiag.exe', 'Reg.exe', 'Regasm.exe', 'Regedit.exe', 'Regini.exe', 'Register-cimprovider.exe', 'Regsvcs.exe', 'Regsvr32.exe', 'Replace.exe', 'Rpcping.exe', 'Rundll32.exe', 'Runexehelper.exe', 'Runonce.exe', 'Runscripthelper.exe', 'Sc.exe', 'Schtasks.exe', 'Scriptrunner.exe', 'Setres.exe', 'SettingSyncHost.exe', 'Sftp.exe', 'ssh.exe', 'Stordiag.exe', 'SyncAppvPublishingServer.exe', 'Tar.exe', 'Ttdinject.exe', 'Tttracer.exe', 'Unregmp2.exe', 'vbc.exe', 'Verclsid.exe', 'Wab.exe', 'wbadmin.exe', 'wbemtest.exe', 'winget.exe', 'Wlrmdr.exe', 'Wmic.exe', 'WorkFolders.exe', 'Wscript.exe', 'Wsreset.exe', 'wuauclt.exe', 'Xwizard.exe', 'msedge_proxy.exe', 'msedgewebview2.exe', 'wt.exe', 'Advpack.dll', 'Desk.cpl', 'Dfshim.dll', 'Ieadvpack.dll', 'Ieframe.dll', 'Mshtml.dll', 'Pcwutl.dll', 'PhotoViewer.dll', 'Scrobj.dll', 'Setupapi.dll', 'Shdocvw.dll', 'Shell32.dll', 'Shimgvw.dll', 'Syssetup.dll', 'Url.dll', 'Zipfldr.dll', 'Comsvcs.dll', 'AccCheckConsole.exe', 'adplus.exe', 'AgentExecutor.exe', 'AppCert.exe', 'Appvlp.exe', 'Bginfo.exe', 'Cdb.exe', 'coregen.exe', 'Createdump.exe', 'csi.exe', 'DefaultPack.EXE', 'Devinit.exe', 'Devtoolslauncher.exe', 'dnx.exe', 'Dotnet.exe', 'dsdbutil.exe', 'dtutil.exe', 'Dump64.exe', 'DumpMinitool.exe', 'Dxcap.exe', 'ECMangen.exe', 'Excel.exe', 'Fsi.exe', 'FsiAnyCpu.exe', 'Mftrace.exe', 'Microsoft.NodejsTools.PressAnyKey.exe', 'MSAccess.exe', 'Msdeploy.exe', 'MsoHtmEd.exe', 'Mspub.exe', 'msxsl.exe', 'ntdsutil.exe', 'OpenConsole.exe', 'Powerpnt.exe', 'Procdump.exe', 'ProtocolHandler.exe', 'rcsi.exe', 'Remote.exe', 'Sqldumper.exe', 'Sqlps.exe', 'SQLToolsPS.exe', 'Squirrel.exe', 'te.exe', 'Teams.exe', 'TestWindowRemoteAgent.exe', 'Tracker.exe', 'Update.exe', 'VSDiagnostics.exe', 'VSIISExeLauncher.exe', 'Visio.exe', 'VisualUiaVerifyNative.exe', 'VSLaunchBrowser.exe', 'Vshadow.exe', 'vsjitdebugger.exe', 'WFMFormat.exe', 'Wfc.exe', 'WinProj.exe', 'Winword.exe', 'Wsl.exe', 'XBootMgrSleep.exe', 'devtunnel.exe', 'vsls-agent.exe', 'vstest.console.exe', 'winfile.exe', 'xsd.exe', 'CL_LoadAssembly.ps1', 'CL_Mutexverifiers.ps1', 'CL_Invocation.ps1', 'Launch-VsDevShell.ps1', 'Manage-bde.wsf', 'Pubprn.vbs', 'Syncappvpublishingserver.vbs', 'UtilityFunctions.ps1', 'winrm.vbs', 'Pester.bat'
+)
+# Store results
+$lolresults = @()
+foreach ($lolBin in $lolBins) {
+    $foundPaths = @()
+    foreach ($dir in $targetDirs) {
+        $fullPath = Join-Path -Path $dir -ChildPath $lolBin
+        if (Test-Path -Path $fullPath) {
+            $foundPaths += $fullPath
+        }
+    }
+    $status = if ($foundPaths.Count -gt 0) { "Yes" } else { "No" }
+    $directory = if ($foundPaths.Count -gt 0) { $foundPaths -join "; " } else { "Not Found" }
+    # Store in results array
+    $lolresults += [PSCustomObject]@{
+        LOLBin    = $lolBin
+        Directories = $directory
+        Status    = $status
+    }
+}
+# ✅ Return the results to the Run_Check function
+return $lolresults</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -179,7 +563,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -190,6 +574,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -687,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="72" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -709,64 +1105,100 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="403.2">
-      <c r="A2" s="2">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="3" spans="1:3" ht="409.6">
       <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="409.6">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="409.6">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="409.6">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="409.6">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="409.6">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+    <row r="9" spans="1:3" ht="409.6">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/backend/DSEC/startScan/Compromise_Assesment/Windows/Command_Data/command.xlsx
+++ b/backend/DSEC/startScan/Compromise_Assesment/Windows/Command_Data/command.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DES\DSEC360-\backend\DSEC\startScan\Compromise_Assesment\Windows\Command_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0FFE84-B993-4C99-A9E2-52C183985C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9769EDBE-AEC2-49E8-9311-146380F3EAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>S.No</t>
   </si>
@@ -485,6 +485,333 @@
 }
 # ✅ Return the results to the Run_Check function
 return $lolresults</t>
+  </si>
+  <si>
+    <t>Windows Events</t>
+  </si>
+  <si>
+    <t>Schedule Task</t>
+  </si>
+  <si>
+    <t># --- Scheduled_Tasks_Info (EXE-based scheduled tasks, paths, status) ---
+$taskList = @()
+# Retrieve all scheduled tasks
+$tasks = Get-ScheduledTask
+foreach ($task in $tasks) {
+    try {
+        # Get task status info
+        $taskInfo = Get-ScheduledTaskInfo -TaskName $task.TaskName -TaskPath $task.TaskPath
+        # Filter to include only EXE-based actions
+        $actions = $task.Actions | Where-Object { $_.Execute -match "\.exe$" }
+        foreach ($action in $actions) {
+            $taskList += [PSCustomObject]@{
+                TaskName    = $task.TaskName
+                TaskPath    = $task.TaskPath
+                Execute     = $action.Execute
+                Arguments   = $action.Arguments
+                WorkingDir  = $action.WorkingDirectory
+                LastRunTime = $taskInfo.LastRunTime
+                NextRunTime = $taskInfo.NextRunTime
+                Status      = $taskInfo.State
+            }
+        }
+    } catch {
+        Write-Warning "⚠️ Failed to retrieve info for task: $($task.TaskName)"
+    }
+}
+# Return array; Run_Check wrapper stores it in $results["Scheduled_Tasks_Info"]
+$taskList</t>
+  </si>
+  <si>
+    <t># --- Local_User_Privileges_Info (Local users with privileges) ---
+$userList = @()
+# Get all local user accounts
+$allUsers = Get-LocalUser
+# Get members of the local Administrators group
+$adminGroup = Get-LocalGroupMember -Group "Administrators" | Where-Object { $_.ObjectClass -eq 'User' }
+foreach ($user in $allUsers) {
+    $privileges = @()
+    # Local or domain
+    if (-not ($user.Name -like "*\*")) {
+        $privileges += "Local User"
+    } else {
+        $privileges += "Domain User"
+    }
+    # Is Admin
+    if ($adminGroup.Name -contains $user.Name) {
+        $privileges += "Administrator"
+    }
+    # Enabled or Disabled
+    if ($user.Enabled) {
+        $privileges += "Enabled"
+    } else {
+        $privileges += "Disabled"
+    }
+    # Password policies
+    if ($user.PasswordNeverExpires) {
+        $privileges += "Password Never Expires"
+    }
+    if ($user.UserMayNotChangePassword) {
+        $privileges += "User Cannot Change Password"
+    }
+    $userList += [PSCustomObject]@{
+        Username    = $user.Name
+        FullName    = $user.FullName
+        Description = $user.Description
+        Privileges  = ($privileges -join ", ")
+    }
+}
+# Return array; Run_Check wrapper stores it in $results["Local_User_Privileges_Info"]
+$userList</t>
+  </si>
+  <si>
+    <t>List All User Accounts</t>
+  </si>
+  <si>
+    <t>Configuration Files</t>
+  </si>
+  <si>
+    <t># --- Combined Windows Event Checks ---
+$windowsResults = [ordered]@{}
+# 1. User_Account_Creations
+$StartTime = (Get-Date).AddDays(-7)
+$userEvents = Get-WinEvent -FilterHashtable @{
+    LogName = 'Security';
+    Id = 4720;
+    StartTime = $StartTime
+} | ForEach-Object {
+    $msg = $_.Message
+    $created = if ($msg -match "New Account:\r?\n\s*Security ID:\s*.+?\r?\n\s*Account Name:\s*([^\r\n]+)") {
+        $matches[1].Trim()
+    } else { "N/A" }
+    $creator = if ($msg -match "Subject:\r?\n\s*Security ID:.*\r?\n\s*Account Name:\s*([^\r\n]+)") {
+        $matches[1].Trim()
+    } else { "N/A" }
+    [PSCustomObject]@{
+        Time           = $_.TimeCreated
+        EventID        = $_.Id
+        CreatedAccount = $created
+        CreatorAccount = $creator
+    }
+}
+$windowsResults["User_Account_Creations"] = $userEvents
+# 2. File_Creation_Deletion_Events
+$fileEvents = Get-WinEvent -FilterHashtable @{
+    LogName = 'Security';
+    Id = 4663;
+    StartTime = $StartTime
+} | Where-Object { $_.Message -match 'Accesses:\s+.*(WriteData|Delete)' } |
+ForEach-Object {
+    $object = if ($_.Message -match "Object Name:\s+(.+?)\r") { $matches[1] } else { "N/A" }
+    $access = if ($_.Message -match "Accesses:\s+(.+?)\r") { $matches[1] } else { "N/A" }
+    [PSCustomObject]@{
+        Time    = $_.TimeCreated
+        EventID = $_.Id
+        Object  = $object
+        Access  = $access
+    }
+}
+$windowsResults["File_Creation_Deletion_Events"] = $fileEvents
+# 3. BAT_File_Creation
+$batEvents = Get-WinEvent -FilterHashtable @{
+    LogName = 'Security';
+    Id = 4663;
+    StartTime = $StartTime
+} | Where-Object { $_.Message -match '\.bat' -and $_.Message -match 'WriteData' } |
+ForEach-Object {
+    $object = if ($_.Message -match "Object Name:\s+(.+?\.bat.*?)\r") { $matches[1] } else { "N/A" }
+    $access = if ($_.Message -match "Accesses:\s+(.+?)\r") { $matches[1] } else { "N/A" }
+    [PSCustomObject]@{
+        Time    = $_.TimeCreated
+        EventID = $_.Id
+        Object  = $object
+        Access  = $access
+    }
+}
+$windowsResults["BAT_File_Creation"] = $batEvents
+# 4. Failed_Logon_Attempts
+$logonFailEvents = Get-WinEvent -FilterHashtable @{
+    LogName = 'Security';
+    Id = 4625;
+    StartTime = $StartTime
+} | ForEach-Object {
+    $msg = $_.Message
+    $accountName = if ($msg -match "Account Name:\s+([^\r\n]+)") { $matches[1].Trim() } else { "N/A" }
+    $ipAddress   = if ($msg -match "Source Network Address:\s+([^\r\n]+)") { $matches[1].Trim() } else { "N/A" }
+    $logonType   = if ($msg -match "Logon Type:\s+(\d+)") { $matches[1] } else { "N/A" }
+    $failure     = if ($msg -match "Failure Reason:\s+([^\r\n]+)") { $matches[1].Trim() } else { "N/A" }
+    [PSCustomObject]@{
+        Time          = $_.TimeCreated
+        EventID       = $_.Id
+        Account       = $accountName
+        IPAddress     = $ipAddress
+        LogonType     = $logonType
+        FailureReason = $failure
+    }
+}
+$windowsResults["Failed_Logon_Attempts"] = $logonFailEvents
+# 5. After_Hours_Logons
+$today = [datetime]::Today
+$afterHours = $today.AddHours(18)  # 6 PM
+$afterHourEvents = Get-WinEvent -FilterHashtable @{
+    LogName = 'Security'
+    ID = 4624
+    StartTime = $today
+} | ForEach-Object {
+    $event = [xml]$_.ToXml()
+    $logonTime = $_.TimeCreated
+    $user = $event.Event.EventData.Data | Where-Object { $_.Name -eq "TargetUserName" }
+    if ($logonTime -gt $afterHours -and $user.'#text' -ne 'ANONYMOUS LOGON') {
+        [PSCustomObject]@{
+            TimeCreated = $logonTime
+            UserName    = $user.'#text'
+        }
+    }
+}
+$windowsResults["After_Hours_Logons"] = $afterHourEvents
+# 6. Suspicious_Open_Ports
+$startHour = 9
+$endHour = 18
+$currentHour = (Get-Date).Hour
+$ports = @{
+    "RDP" = 3389
+    "SSH" = 22
+    "FTP" = 21
+}
+function Test-Port {
+    param ([int]$port)
+    try {
+        $tcpClient = New-Object System.Net.Sockets.TcpClient
+        $asyncResult = $tcpClient.BeginConnect("localhost", $port, $null, $null)
+        $wait = $asyncResult.AsyncWaitHandle.WaitOne(2000, $false)
+        if ($wait -and $tcpClient.Connected) {
+            $tcpClient.Close()
+            return $true
+        }
+    } catch {
+        return $false
+    }
+    return $false
+}
+$openPorts = @()
+if ($currentHour -lt $startHour -or $currentHour -ge $endHour) {
+    foreach ($service in $ports.Keys) {
+        $port = $ports[$service]
+        if (Test-Port -port $port) {
+            $openPorts += [PSCustomObject]@{
+                Service = $service
+                Port    = $port
+                Status  = "OPEN"
+            }
+        }
+    }
+}
+$windowsResults["Suspicious_Open_Ports"] = $openPorts
+# Return all grouped results
+$windowsResults</t>
+  </si>
+  <si>
+    <t>PowerShell History</t>
+  </si>
+  <si>
+    <t># --- Powershell_Dangerous_Commands_History_Info ---
+$dangerousCommands = @(
+    'Remove-Item',
+    'Format-Volume',
+    'Clear-EventLog',
+    'Add-MpPreference',
+    'Set-ExecutionPolicy',
+    'Invoke-WebRequest',
+    'Start-Process',
+    'Invoke-Expression',
+    'New-LocalUser',
+    'Add-LocalGroupMember',
+    'schtasks',
+    'Set-ItemProperty',
+    'Invoke-Mimikatz',
+    'DownloadString',
+    'Stop-Computer',
+    'Disable-ComputerRestore',
+    'IEX',
+    'Get-Credential',
+    'Get-WmiObject',
+    'Enter-PSSession',
+    'Invoke-Command',
+    'net use',
+    'Unprotect'
+)
+$results = @()
+$allUsers = Get-LocalUser
+foreach ($user in $allUsers) {
+    $username = $user.Name
+    $profilePath = "C:\Users\$username"
+    $historyPath = "$profilePath\AppData\Roaming\Microsoft\Windows\PowerShell\PSReadLine\ConsoleHost_history.txt"
+    if (Test-Path $historyPath) {
+        $lines = Get-Content $historyPath
+        $lineNumber = 1
+        foreach ($line in $lines) {
+            $lineTrim = $line.Trim()
+            foreach ($cmd in $dangerousCommands) {
+                if ($lineTrim -match ("(?i)\b" + [regex]::Escape($cmd) + "\b")) {
+                    # Add structured result for pipeline
+                    $results += [PSCustomObject]@{
+                        Username      = $username
+                        LineNumber    = $lineNumber
+                        Command        = $lineTrim
+                        MatchedKeyword = $cmd
+                    }
+                    break  # avoid duplicate matches for one line
+                }
+            }
+            $lineNumber++
+        }
+    }
+}
+# Return array; Run_Check wrapper stores it in $results["Powershell_Dangerous_Commands_History_Info"]
+$results</t>
+  </si>
+  <si>
+    <t># --- Inetpub_Config_Files_Info (Lists all config files under inetpub with permissions and hash) ---
+$configFiles = @()
+# Define root directory
+$inetpubPath = "C:\inetpub"
+# Define target file types
+$filePatterns = @("*.config", "*.ini", "*.xml", "*.exe")  # Add more if needed
+# Recursively search for files
+foreach ($pattern in $filePatterns) {
+    try {
+        $foundFiles = Get-ChildItem -Path $inetpubPath -Recurse -Filter $pattern -ErrorAction SilentlyContinue
+        foreach ($file in $foundFiles) {
+            try {
+                # Get ACL
+                $acl = Get-Acl -Path $file.FullName
+                $permissions = ($acl.Access | ForEach-Object {
+                    "$($_.IdentityReference): $($_.FileSystemRights) ($($_.AccessControlType))"
+                }) -join "; "
+            } catch {
+                $permissions = "Error retrieving permissions: $($_.Exception.Message)"
+            }
+            # Compute file hash
+            try {
+                $hash = Get-FileHash -Path $file.FullName -Algorithm SHA256
+                $hashValue = $hash.Hash
+            } catch {
+                $hashValue = "Error computing hash: $($_.Exception.Message)"
+            }
+            $configFiles += [PSCustomObject]@{
+                FileName     = $file.Name
+                FilePath     = $file.FullName
+                Extension    = $file.Extension
+                Permissions  = $permissions
+                HashSHA256   = $hashValue
+            }
+        }
+    } catch {
+        Write-Warning "Error searching for pattern '$pattern': $($_.Exception.Message)"
+    }
+}
+# Return array; Run_Check wrapper stores it in $results["Inetpub_Config_Files_Info"]
+$configFiles</t>
   </si>
 </sst>
 </file>
@@ -1083,10 +1410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="72" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="72" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1182,20 +1509,60 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+    <row r="10" spans="1:3" ht="409.6">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+    <row r="11" spans="1:3" ht="409.6">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+    <row r="12" spans="1:3" ht="409.6">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="409.6">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="409.6">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/DSEC/startScan/Compromise_Assesment/Windows/Command_Data/command.xlsx
+++ b/backend/DSEC/startScan/Compromise_Assesment/Windows/Command_Data/command.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DES\DSEC360-\backend\DSEC\startScan\Compromise_Assesment\Windows\Command_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9769EDBE-AEC2-49E8-9311-146380F3EAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6260EC-4659-441E-970B-5D6163B57435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,146 +569,6 @@
   </si>
   <si>
     <t>Configuration Files</t>
-  </si>
-  <si>
-    <t># --- Combined Windows Event Checks ---
-$windowsResults = [ordered]@{}
-# 1. User_Account_Creations
-$StartTime = (Get-Date).AddDays(-7)
-$userEvents = Get-WinEvent -FilterHashtable @{
-    LogName = 'Security';
-    Id = 4720;
-    StartTime = $StartTime
-} | ForEach-Object {
-    $msg = $_.Message
-    $created = if ($msg -match "New Account:\r?\n\s*Security ID:\s*.+?\r?\n\s*Account Name:\s*([^\r\n]+)") {
-        $matches[1].Trim()
-    } else { "N/A" }
-    $creator = if ($msg -match "Subject:\r?\n\s*Security ID:.*\r?\n\s*Account Name:\s*([^\r\n]+)") {
-        $matches[1].Trim()
-    } else { "N/A" }
-    [PSCustomObject]@{
-        Time           = $_.TimeCreated
-        EventID        = $_.Id
-        CreatedAccount = $created
-        CreatorAccount = $creator
-    }
-}
-$windowsResults["User_Account_Creations"] = $userEvents
-# 2. File_Creation_Deletion_Events
-$fileEvents = Get-WinEvent -FilterHashtable @{
-    LogName = 'Security';
-    Id = 4663;
-    StartTime = $StartTime
-} | Where-Object { $_.Message -match 'Accesses:\s+.*(WriteData|Delete)' } |
-ForEach-Object {
-    $object = if ($_.Message -match "Object Name:\s+(.+?)\r") { $matches[1] } else { "N/A" }
-    $access = if ($_.Message -match "Accesses:\s+(.+?)\r") { $matches[1] } else { "N/A" }
-    [PSCustomObject]@{
-        Time    = $_.TimeCreated
-        EventID = $_.Id
-        Object  = $object
-        Access  = $access
-    }
-}
-$windowsResults["File_Creation_Deletion_Events"] = $fileEvents
-# 3. BAT_File_Creation
-$batEvents = Get-WinEvent -FilterHashtable @{
-    LogName = 'Security';
-    Id = 4663;
-    StartTime = $StartTime
-} | Where-Object { $_.Message -match '\.bat' -and $_.Message -match 'WriteData' } |
-ForEach-Object {
-    $object = if ($_.Message -match "Object Name:\s+(.+?\.bat.*?)\r") { $matches[1] } else { "N/A" }
-    $access = if ($_.Message -match "Accesses:\s+(.+?)\r") { $matches[1] } else { "N/A" }
-    [PSCustomObject]@{
-        Time    = $_.TimeCreated
-        EventID = $_.Id
-        Object  = $object
-        Access  = $access
-    }
-}
-$windowsResults["BAT_File_Creation"] = $batEvents
-# 4. Failed_Logon_Attempts
-$logonFailEvents = Get-WinEvent -FilterHashtable @{
-    LogName = 'Security';
-    Id = 4625;
-    StartTime = $StartTime
-} | ForEach-Object {
-    $msg = $_.Message
-    $accountName = if ($msg -match "Account Name:\s+([^\r\n]+)") { $matches[1].Trim() } else { "N/A" }
-    $ipAddress   = if ($msg -match "Source Network Address:\s+([^\r\n]+)") { $matches[1].Trim() } else { "N/A" }
-    $logonType   = if ($msg -match "Logon Type:\s+(\d+)") { $matches[1] } else { "N/A" }
-    $failure     = if ($msg -match "Failure Reason:\s+([^\r\n]+)") { $matches[1].Trim() } else { "N/A" }
-    [PSCustomObject]@{
-        Time          = $_.TimeCreated
-        EventID       = $_.Id
-        Account       = $accountName
-        IPAddress     = $ipAddress
-        LogonType     = $logonType
-        FailureReason = $failure
-    }
-}
-$windowsResults["Failed_Logon_Attempts"] = $logonFailEvents
-# 5. After_Hours_Logons
-$today = [datetime]::Today
-$afterHours = $today.AddHours(18)  # 6 PM
-$afterHourEvents = Get-WinEvent -FilterHashtable @{
-    LogName = 'Security'
-    ID = 4624
-    StartTime = $today
-} | ForEach-Object {
-    $event = [xml]$_.ToXml()
-    $logonTime = $_.TimeCreated
-    $user = $event.Event.EventData.Data | Where-Object { $_.Name -eq "TargetUserName" }
-    if ($logonTime -gt $afterHours -and $user.'#text' -ne 'ANONYMOUS LOGON') {
-        [PSCustomObject]@{
-            TimeCreated = $logonTime
-            UserName    = $user.'#text'
-        }
-    }
-}
-$windowsResults["After_Hours_Logons"] = $afterHourEvents
-# 6. Suspicious_Open_Ports
-$startHour = 9
-$endHour = 18
-$currentHour = (Get-Date).Hour
-$ports = @{
-    "RDP" = 3389
-    "SSH" = 22
-    "FTP" = 21
-}
-function Test-Port {
-    param ([int]$port)
-    try {
-        $tcpClient = New-Object System.Net.Sockets.TcpClient
-        $asyncResult = $tcpClient.BeginConnect("localhost", $port, $null, $null)
-        $wait = $asyncResult.AsyncWaitHandle.WaitOne(2000, $false)
-        if ($wait -and $tcpClient.Connected) {
-            $tcpClient.Close()
-            return $true
-        }
-    } catch {
-        return $false
-    }
-    return $false
-}
-$openPorts = @()
-if ($currentHour -lt $startHour -or $currentHour -ge $endHour) {
-    foreach ($service in $ports.Keys) {
-        $port = $ports[$service]
-        if (Test-Port -port $port) {
-            $openPorts += [PSCustomObject]@{
-                Service = $service
-                Port    = $port
-                Status  = "OPEN"
-            }
-        }
-    }
-}
-$windowsResults["Suspicious_Open_Ports"] = $openPorts
-# Return all grouped results
-$windowsResults</t>
   </si>
   <si>
     <t>PowerShell History</t>
@@ -812,6 +672,151 @@
 }
 # Return array; Run_Check wrapper stores it in $results["Inetpub_Config_Files_Info"]
 $configFiles</t>
+  </si>
+  <si>
+    <t># --- Combined Windows Event Checks ---
+$windowsResults = [ordered]@{}
+# 1. User_Account_Creations
+$StartTime = (Get-Date).AddDays(-7)
+$userEvents = Get-WinEvent -FilterHashtable @{
+    LogName = 'Security';
+    Id = 4720;
+    StartTime = $StartTime
+} | ForEach-Object {
+    $msg = $_.Message
+    $created = if ($msg -match "New Account:\r?\n\s*Security ID:\s*.+?\r?\n\s*Account Name:\s*([^\r\n]+)") {
+        $matches[1].Trim()
+    } else { "N/A" }
+    $creator = if ($msg -match "Subject:\r?\n\s*Security ID:.*\r?\n\s*Account Name:\s*([^\r\n]+)") {
+        $matches[1].Trim()
+    } else { "N/A" }
+    [PSCustomObject]@{
+        Time           = $_.TimeCreated
+        EventID        = $_.Id
+        CreatedAccount = $created
+        CreatorAccount = $creator
+    }
+}
+$windowsResults["User_Account_Creations"] = $userEvents
+# 2. File_Creation_Deletion_Events
+$fileEvents = Get-WinEvent -FilterHashtable @{
+    LogName = 'Security';
+    Id = 4663;
+    StartTime = $StartTime
+} | Where-Object { $_.Message -match 'Accesses:\s+.*(WriteData|Delete)' } |
+ForEach-Object {
+    $object = if ($_.Message -match "Object Name:\s+(.+?)\r") { $matches[1] } else { "N/A" }
+    $access = if ($_.Message -match "Accesses:\s+(.+?)\r") { $matches[1] } else { "N/A" }
+    [PSCustomObject]@{
+        Time    = $_.TimeCreated
+        EventID = $_.Id
+        Object  = $object
+        Access  = $access
+    }
+}
+$windowsResults["File_Creation_Deletion_Events"] = $fileEvents
+# 3. BAT_File_Creation
+$batEvents = Get-WinEvent -FilterHashtable @{
+    LogName = 'Security';
+    Id = 4663;
+    StartTime = $StartTime
+} | Where-Object { $_.Message -match '\.bat' -and $_.Message -match 'WriteData' } |
+ForEach-Object {
+    $object = if ($_.Message -match "Object Name:\s+(.+?\.bat.*?)\r") { $matches[1] } else { "N/A" }
+    $access = if ($_.Message -match "Accesses:\s+(.+?)\r") { $matches[1] } else { "N/A" }
+    [PSCustomObject]@{
+        Time    = $_.TimeCreated
+        EventID = $_.Id
+        Object  = $object
+        Access  = $access
+    }
+}
+$windowsResults["BAT_File_Creation"] = $batEvents
+# 4. Failed_Logon_Attempts
+try {
+    $rawLogonFailEvents = Get-WinEvent -FilterHashtable @{
+        LogName = 'Security';
+        Id = 4625;
+        StartTime = $StartTime
+    } -ErrorAction Stop
+} catch {
+    $rawLogonFailEvents = @()  # Return empty array if no events or error
+}
+$logonFailEvents = $rawLogonFailEvents | ForEach-Object {
+    $msg = $_.Message
+    $accountName = if ($msg -match "Account Name:\s+([^\r\n]+)") { $matches[1].Trim() } else { "N/A" }
+    $ipAddress   = if ($msg -match "Source Network Address:\s+([^\r\n]+)") { $matches[1].Trim() } else { "N/A" }
+    $logonType   = if ($msg -match "Logon Type:\s+(\d+)") { $matches[1] } else { "N/A" }
+    $failure     = if ($msg -match "Failure Reason:\s+([^\r\n]+)") { $matches[1].Trim() } else { "N/A" }
+    [PSCustomObject]@{
+        Time          = $_.TimeCreated
+        EventID       = $_.Id
+        Account       = $accountName
+        IPAddress     = $ipAddress
+        LogonType     = $logonType
+        FailureReason = $failure
+    }
+}
+$windowsResults["Failed_Logon_Attempts"] = $logonFailEvents
+# 5. After_Hours_Logons
+$today = [datetime]::Today
+$afterHours = $today.AddHours(18)  # 6 PM
+$afterHourEvents = Get-WinEvent -FilterHashtable @{
+    LogName = 'Security'
+    ID = 4624
+    StartTime = $today
+} | ForEach-Object {
+    $event = [xml]$_.ToXml()
+    $logonTime = $_.TimeCreated
+    $user = $event.Event.EventData.Data | Where-Object { $_.Name -eq "TargetUserName" }
+    if ($logonTime -gt $afterHours -and $user.'#text' -ne 'ANONYMOUS LOGON') {
+        [PSCustomObject]@{
+            TimeCreated = $logonTime
+            UserName    = $user.'#text'
+        }
+    }
+}
+$windowsResults["After_Hours_Logons"] = $afterHourEvents
+# 6. Suspicious_Open_Ports
+$startHour = 9
+$endHour = 18
+$currentHour = (Get-Date).Hour
+$ports = @{
+    "RDP" = 3389
+    "SSH" = 22
+    "FTP" = 21
+}
+function Test-Port {
+    param ([int]$port)
+    try {
+        $tcpClient = New-Object System.Net.Sockets.TcpClient
+        $asyncResult = $tcpClient.BeginConnect("localhost", $port, $null, $null)
+        $wait = $asyncResult.AsyncWaitHandle.WaitOne(2000, $false)
+        if ($wait -and $tcpClient.Connected) {
+            $tcpClient.Close()
+            return $true
+        }
+    } catch {
+        return $false
+    }
+    return $false
+}
+$openPorts = @()
+if ($currentHour -lt $startHour -or $currentHour -ge $endHour) {
+    foreach ($service in $ports.Keys) {
+        $port = $ports[$service]
+        if (Test-Port -port $port) {
+            $openPorts += [PSCustomObject]@{
+                Service = $service
+                Port    = $port
+                Status  = "OPEN"
+            }
+        }
+    }
+}
+$windowsResults["Suspicious_Open_Ports"] = $openPorts
+# Return all grouped results
+$windowsResults</t>
   </si>
 </sst>
 </file>
@@ -1412,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="72" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="72" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1517,7 +1522,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="409.6">
@@ -1550,7 +1555,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="409.6">
@@ -1558,10 +1563,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/backend/DSEC/startScan/Compromise_Assesment/Windows/Command_Data/command.xlsx
+++ b/backend/DSEC/startScan/Compromise_Assesment/Windows/Command_Data/command.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DES\DSEC360-\backend\DSEC\startScan\Compromise_Assesment\Windows\Command_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6260EC-4659-441E-970B-5D6163B57435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60680A21-7C6C-444A-9808-21198B007E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/backend/DSEC/startScan/Compromise_Assesment/Windows/Command_Data/command.xlsx
+++ b/backend/DSEC/startScan/Compromise_Assesment/Windows/Command_Data/command.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DES\DSEC360-\backend\DSEC\startScan\Compromise_Assesment\Windows\Command_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60680A21-7C6C-444A-9808-21198B007E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17D1228-AE7F-4A30-A911-F92A9134DB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,36 +491,6 @@
   </si>
   <si>
     <t>Schedule Task</t>
-  </si>
-  <si>
-    <t># --- Scheduled_Tasks_Info (EXE-based scheduled tasks, paths, status) ---
-$taskList = @()
-# Retrieve all scheduled tasks
-$tasks = Get-ScheduledTask
-foreach ($task in $tasks) {
-    try {
-        # Get task status info
-        $taskInfo = Get-ScheduledTaskInfo -TaskName $task.TaskName -TaskPath $task.TaskPath
-        # Filter to include only EXE-based actions
-        $actions = $task.Actions | Where-Object { $_.Execute -match "\.exe$" }
-        foreach ($action in $actions) {
-            $taskList += [PSCustomObject]@{
-                TaskName    = $task.TaskName
-                TaskPath    = $task.TaskPath
-                Execute     = $action.Execute
-                Arguments   = $action.Arguments
-                WorkingDir  = $action.WorkingDirectory
-                LastRunTime = $taskInfo.LastRunTime
-                NextRunTime = $taskInfo.NextRunTime
-                Status      = $taskInfo.State
-            }
-        }
-    } catch {
-        Write-Warning "⚠️ Failed to retrieve info for task: $($task.TaskName)"
-    }
-}
-# Return array; Run_Check wrapper stores it in $results["Scheduled_Tasks_Info"]
-$taskList</t>
   </si>
   <si>
     <t># --- Local_User_Privileges_Info (Local users with privileges) ---
@@ -817,6 +787,65 @@
 $windowsResults["Suspicious_Open_Ports"] = $openPorts
 # Return all grouped results
 $windowsResults</t>
+  </si>
+  <si>
+    <t># --- Scheduled_Tasks_Info (EXE-based scheduled tasks, paths, status, permissions, hash) ---
+$taskList = @()
+# Retrieve all scheduled tasks
+$tasks = Get-ScheduledTask
+foreach ($task in $tasks) {
+    try {
+        # Get task status info
+        $taskInfo = Get-ScheduledTaskInfo -TaskName $task.TaskName -TaskPath $task.TaskPath
+        # Filter to include only EXE-based actions
+        $actions = $task.Actions | Where-Object { $_.Execute -match "\.exe$" }
+        foreach ($action in $actions) {
+            $exePath = $action.Execute
+            $resolvedPath = $exePath
+            # Attempt to resolve relative paths (e.g., just "cmd.exe" to full path)
+            if (-not (Test-Path $resolvedPath)) {
+                $resolvedPath = (Get-Command $exePath -ErrorAction SilentlyContinue)?.Source
+            }
+            # Initialize default values
+            $fileHash = "N/A"
+            $permissions = "N/A"
+            # Get SHA256 hash
+            if ($resolvedPath -and (Test-Path $resolvedPath)) {
+                try {
+                    $fileHash = (Get-FileHash -Path $resolvedPath -Algorithm SHA256).Hash
+                } catch {
+                    $fileHash = "Hash Error"
+                }
+                # Get permissions
+                try {
+                    $acl = Get-Acl -Path $resolvedPath
+                    $permissions = ($acl.Access | ForEach-Object {
+                        "$($_.IdentityReference):$($_.FileSystemRights)"
+                    }) -join "; "
+                } catch {
+                    $permissions = "Permission Error"
+                }
+            }
+            # Add to results
+            $taskList += [PSCustomObject]@{
+                TaskName    = $task.TaskName
+                TaskPath    = $task.TaskPath
+                Execute     = $exePath
+                Arguments   = $action.Arguments
+                WorkingDir  = $action.WorkingDirectory
+                LastRunTime = $taskInfo.LastRunTime
+                NextRunTime = $taskInfo.NextRunTime
+                Status      = $taskInfo.State
+                Hash        = $fileHash
+                Permissions = $permissions
+            }
+        }
+    } catch {
+        Write-Warning "⚠️ Failed to retrieve info for task: $($task.TaskName)"
+    }
+}
+# Return array; Run_Check wrapper stores it in $results["Scheduled_Tasks_Info"]
+$taskList</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1551,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="409.6">
@@ -1533,7 +1562,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="409.6">
@@ -1541,10 +1570,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="409.6">
@@ -1552,10 +1581,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="409.6">
@@ -1563,10 +1592,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
